--- a/Testcase/testcase.xlsx
+++ b/Testcase/testcase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE\HKI VII\tesing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buiqu\OneDrive\Documents\GitHub\OnlineShop\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E36F7429-2304-4884-B1E8-9C11F3558BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BDCFE3-07F8-403B-B08F-87E2BE3C86A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{1BC372D7-79D2-4589-A108-D54704694F9F}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
     <sheet name="Blackbox testing" sheetId="2" r:id="rId2"/>
     <sheet name="Whitebox testing" sheetId="3" r:id="rId3"/>
-    <sheet name="Unit testing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +32,186 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2373F0C5-94D2-4E0C-8E44-8FDBCCBEC283}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Test Case ID
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{EE2AE14B-2880-4E6B-8B96-47E2EC5AC540}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Forms / Report name with Navigation Menu Path</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{694029E8-6A5F-407A-8358-C88C43ACCAA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Use Case ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3CB532EB-DC6F-4B1C-89EB-D16898AF50F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Pre-Condition </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>of Test Case</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Incase of similar type </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pre-Condition</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> write </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>'Do'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AF140CE1-E138-4F10-B046-25502D02F11F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Incase of similar type </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Case Description</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> write 'Do'
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="192">
   <si>
     <t>Test case</t>
   </si>
@@ -63,9 +240,6 @@
     <t>Project name</t>
   </si>
   <si>
-    <t>Quản lý nhân sự và tiền lương</t>
-  </si>
-  <si>
     <t>Project code</t>
   </si>
   <si>
@@ -84,9 +258,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Nguyễn Phi Phú</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -103,18 +274,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Test black box 4 màn hình (Đăng nhập -Nhân viên - thông tin nhân viên - chế độ)</t>
-  </si>
-  <si>
-    <t>Test black box  thêm 4 màn hình ( Tiền lương - phòng ban - bộ phận - bảng công)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test while box </t>
-  </si>
-  <si>
-    <t>Mai Thắng Đăng Khoa</t>
   </si>
   <si>
     <t>Test Case ID</t>
@@ -487,20 +646,338 @@
     <t>AddNewMerchandiseCategory-3</t>
   </si>
   <si>
-    <t>Isvalid</t>
+    <t>Người dùng nhập các thông tin cần thiết</t>
   </si>
   <si>
     <t>Name: "",
 Meta Title: "",
 Parent ID: "",
-Mô tả: "",
 Show on Home: ""</t>
   </si>
   <si>
-    <t>Người dùng nhập các thông tin cần thiết</t>
-  </si>
-  <si>
-    <t>Người dùng</t>
+    <t>Name: "test1",
+Meta Title: "test1",
+Parent ID: "Điện thoại",
+Show on Home: "true"</t>
+  </si>
+  <si>
+    <t>Thêm danh mục sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>Thông báo người dùng nhập các trường còn thiếu</t>
+  </si>
+  <si>
+    <t>Không hiển thị thông báo. Quay về trang quản lí danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>Trang quản lí Danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>Name: "ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep",
+Meta Title: "ten-san-pham-nay-phai-dai-hon-250-ki-tu-neu-chua-dai-hon-250-ki-tu-thi-phai-viet-them-vao-nua-cho-du-250-ki-tu-thi-thoi.-No-van-chua-dai-du-250-ki-tu-nen-van-phai-viet-tiep-ten-san-pham-nay-phai-dai-hon-250-ki-tu-neu-chua-dai-hon-250-ki-tu-thi-phai-viet-them-vao-nua-cho-du-250-ki-tu-thi-thoi.-No-van-chua-dai-du-250-ki-tu-nen-van-phai-viet-tiep-ten-san-pham-nay-phai-dai-hon-250-ki-tu-neu-chua-dai-hon-250-ki-tu-thi-phai-viet-them-vao-nua-cho-du-250-ki-tu-thi-thoi.-No-van-chua-dai-du-250-ki-tu-nen-van-phai-viet-tiep-ten-san-pham-nay-phai-dai-hon-250-ki-tu-neu-chua-dai-hon-250-ki-tu-thi-phai-viet-them-vao-nua-cho-du-250-ki-tu-thi-thoi.-No-van-chua-dai-du-250-ki-tu-nen-van-phai-viet-tiep",
+Parent ID: "Điện thoại",
+Show on Home: "True"</t>
+  </si>
+  <si>
+    <t>AddContent</t>
+  </si>
+  <si>
+    <t>Trang quản lí tin tức</t>
+  </si>
+  <si>
+    <t>AddContent-1</t>
+  </si>
+  <si>
+    <t>AddContent-2</t>
+  </si>
+  <si>
+    <t>AddContent-3</t>
+  </si>
+  <si>
+    <t>Name: "test",
+Meta Title: "test",
+CategoryID: "ABC",
+Detail: "Chi tiết",
+Warranty: "10,
+MetaKeyWord: "test",
+MetaDescription: "test",
+Status: "checked",
+Tags: "test"</t>
+  </si>
+  <si>
+    <t>Thông báo thêm tin tức thành công</t>
+  </si>
+  <si>
+    <t>Người dùng chỉ nhập Name, CategoryID và để trống các trường còn lại</t>
+  </si>
+  <si>
+    <t>Name: "test1",
+Meta Title: "",
+CategoryID: "XYZ",
+Detail: "",
+Warranty: "",
+MetaKeyWord: "",
+MetaDescription: "",
+Status: "",
+Tags: ""</t>
+  </si>
+  <si>
+    <t>Name: "ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep",
+Meta Title: "ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep",
+CategoryID: "XYZ",
+Detail: "ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep",
+Warranty: "13215464877654123",
+MetaKeyWord: "ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep",
+MetaDescription: "ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep",
+Status: "checked",
+Tags: "ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep ten san pham nay phai dai hon 250 ki tu neu chua dai hon 250 ki tu thi phai viet them vao nua cho du 250 ki tu thi thoi. No van chua dai du 250 ki tu nen van phai viet tiep"</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Bùi Đang Quy</t>
+  </si>
+  <si>
+    <t>Thực hiện Whilebox testing 5 trang (Login - AddNewAccount - AddNewMerchandise - AddNewMerchandiseCategory - AddNewContent)</t>
+  </si>
+  <si>
+    <t>Thực hiện blackbox testing 5 trang (Login - AddNewAccount - AddNewMerchandise - AddNewMerchandiseCategory - AddNewContent)</t>
+  </si>
+  <si>
+    <t>ĐĂNG NHẬP</t>
+  </si>
+  <si>
+    <t>Trang Login</t>
+  </si>
+  <si>
+    <t>login-1</t>
+  </si>
+  <si>
+    <t>Người dùng nhập Username và Password của admin để đăng nhập</t>
+  </si>
+  <si>
+    <t>Username: "taikhoan",
+Password: "taikhoan"</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>login-2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>login-3</t>
+  </si>
+  <si>
+    <t>login-4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>login-5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Error: "Tài khoản không
+tồn tại"</t>
+  </si>
+  <si>
+    <t>Error: "Tài khoản đang bị khóa"</t>
+  </si>
+  <si>
+    <t>Username: "admin",
+Password: "saimatkhau"</t>
+  </si>
+  <si>
+    <t>Error: "Mật khẩu không đúng"</t>
+  </si>
+  <si>
+    <t>Error: "Tài khoản của bạn không có quyền đăng nhập"</t>
+  </si>
+  <si>
+    <t>Username: "client",
+Password: "client"</t>
+  </si>
+  <si>
+    <t>Error: "Vui lòng nhập tên đăng nhập"
+Error: "Vui lòng nhập mật khẩu đăng nhập"</t>
+  </si>
+  <si>
+    <t>Username: "testabc",
+Password: "123456"</t>
+  </si>
+  <si>
+    <t>Trang quản lí tài khoản</t>
+  </si>
+  <si>
+    <t>AddNewAcount-1</t>
+  </si>
+  <si>
+    <t>Tên tài khoản: "",
+Mật khẩu: "",
+Họ tên: "",
+Số điện thoại: "",
+Email: "",
+Địa chỉ: ""</t>
+  </si>
+  <si>
+    <t>Error log: "Tên tài khoản không được để trống",
+Error log: "The Mật khẩu field is required"</t>
+  </si>
+  <si>
+    <t>Error log: "Thêm user không thành công"</t>
+  </si>
+  <si>
+    <t>Tên tài khoản: "testabc",
+Mật khẩu: "123456",
+Họ tên: "An",
+Số điện thoại: "0963656463",
+Email: "4n@gmail.com",
+Địa chỉ: "Hà Nội"</t>
+  </si>
+  <si>
+    <t>Error log: "Tài khoản bị trùng"</t>
+  </si>
+  <si>
+    <t>Tên tài khoản: "newtest",
+Mật khẩu: "123456",
+Họ tên: "Mới",
+Số điện thoại: "0334555111",
+Email: "new@gmail.com",
+Địa chỉ: "Đà Lạt"</t>
+  </si>
+  <si>
+    <t>Thành công</t>
+  </si>
+  <si>
+    <t>AddNewAcount-2</t>
+  </si>
+  <si>
+    <t>AddNewAcount-3</t>
+  </si>
+  <si>
+    <t>AddNewAcount-4</t>
+  </si>
+  <si>
+    <t>AddNewAcount-5</t>
+  </si>
+  <si>
+    <t>Trang quản lí sản phẩm</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: ""
+Mã sản phẩm: ""
+MetaTitle: ""
+Loại sản phẩm: ""
+Mô tả: ""
+Image: ""
+MoreImages: ""
+Giá bán: ""
+Giá khuyến mãi: ""
+Số lượng: ""
+Content: ""</t>
+  </si>
+  <si>
+    <t>Error log: "Tên sản phẩm không được để trống",
+Error log: "Meta title không được để trống",
+Error log: "Loại sản phẩm không được để trống"</t>
+  </si>
+  <si>
+    <t>Error log: "Thêm sản phẩm không thành công"</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: "ten san pham abc"
+Mã sản phẩm: "123"
+MetaTitle: "ten-san-pham-abc"
+Loại sản phẩm: "Samsung"
+Mô tả: "Mô tả"
+Image: "/Data/files/apple-macbook-air-2019-i5-16ghz-8gb-128gb-mvfm2sa-13-32-600x600.jpg"
+MoreImages: "/Data/files/apple-macbook-air-2019-i5-16ghz-8gb-128gb-mvfm2sa-13-32-600x600.jpg"
+Giá bán: "15.000.000"
+Giá khuyến mãi: "1.200.000"
+Số lượng: "10"
+Content: "test"</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Trang quản lí danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>Name: "",
+MetaTitle: "",
+ParentID" "",
+ShowOnHome: ""</t>
+  </si>
+  <si>
+    <t>Error log: "Tên danh mục sản phẩm không được để trống",
+Error log: "Meta title không được để trống",
+Error log: "ParentID không được để trống",
+Error log: "Vui lòng chọn ShowOnHome"</t>
+  </si>
+  <si>
+    <t>Error log: "Thêm không thành công"</t>
+  </si>
+  <si>
+    <t>Name: "Wearable",
+MetaTitle: "Wearable",
+ParentID" "",
+ShowOnHome: "True"</t>
+  </si>
+  <si>
+    <t>AddNewContent</t>
+  </si>
+  <si>
+    <t>AddNewContent-1</t>
+  </si>
+  <si>
+    <t>AddNewContent-2</t>
+  </si>
+  <si>
+    <t>Name: "",
+MetaTitle: "",
+Description: "",
+Image: "",
+CategoryID: "",
+Detail: "",
+Warranty: "",
+MetaKeywords: "",
+MetaDescriptions: "",
+Status: "",
+Tags: ""</t>
+  </si>
+  <si>
+    <t>Error log: "Vui lòng điền thông tin"</t>
+  </si>
+  <si>
+    <t>Name: "test",
+MetaTitle: "test",
+Description: "test",
+Image: "/Data/files/hp-348-g5-i3-7020u-4gb-256gb-win10-7xj62pa-210172-600x600.jpg",
+CategoryID: "ABC",
+Detail: "test",
+Warranty: "12",
+MetaKeywords: "test",
+MetaDescriptions: "test",
+Status: "test",
+Tags: "test"</t>
+  </si>
+  <si>
+    <t>Thêm content thành công</t>
+  </si>
+  <si>
+    <t>Quản lý Shop bán hàng</t>
   </si>
 </sst>
 </file>
@@ -511,7 +988,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,8 +1123,38 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,8 +1179,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -876,16 +1395,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -905,9 +1448,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -936,69 +1476,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1110,11 +1587,136 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1431,255 +2033,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6CDB1F-E18E-44FF-8475-9F060663A06E}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:E19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="3" width="37.77734375" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="5" max="5" width="75.109375" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6" ht="22.8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="27.6">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="88"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="13" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="B11" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B13" s="17">
+        <v>43825</v>
+      </c>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.399999999999999">
+      <c r="A15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="19">
-        <v>43821</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="C16" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>43815</v>
-      </c>
-      <c r="B17" s="26" t="s">
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="17">
+        <v>43825</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
-        <v>43816</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
-        <v>43823</v>
-      </c>
-      <c r="B19" s="26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="27" t="s">
-        <v>26</v>
+      <c r="C17" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="17">
+        <v>43827</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="25" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
@@ -1690,21 +2276,21 @@
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32354C2E-456C-4C3E-94AE-160F946020D6}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
@@ -1718,731 +2304,857 @@
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="H1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="K1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="49" t="s">
+    </row>
+    <row r="2" spans="1:11" s="49" customFormat="1">
+      <c r="A2" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
+    </row>
+    <row r="3" spans="1:11" ht="30.6">
+      <c r="A3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="B3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="E3" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="G3" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="30.6">
+      <c r="A4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="B4" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30.6">
+      <c r="A5" s="38">
+        <v>3</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20.399999999999999">
+      <c r="A6" s="43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="B6" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20.399999999999999">
+      <c r="A7" s="38">
+        <v>5</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="20.399999999999999">
+      <c r="A8" s="56">
+        <v>6</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="60"/>
+      <c r="J8" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
+    </row>
+    <row r="10" spans="1:11" ht="61.2">
+      <c r="A10" s="56">
+        <v>7</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="71.400000000000006">
+      <c r="A11" s="56">
+        <v>8</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="105" customHeight="1">
+      <c r="A12" s="56">
+        <v>9</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="I12" s="49"/>
+      <c r="J12" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="61.2">
+      <c r="A13" s="56">
+        <v>10</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="64"/>
+      <c r="J13" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="61.2">
+      <c r="A14" s="56">
+        <v>11</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="61.2">
+      <c r="A15" s="56">
+        <v>12</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="61.2">
+      <c r="A16" s="56">
+        <v>13</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="49"/>
+      <c r="J16" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="56">
+        <v>14</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
+    </row>
+    <row r="18" spans="1:11" ht="112.2">
+      <c r="A18" s="56">
+        <v>15</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="J18" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="91.8">
+      <c r="A19" s="56">
+        <v>16</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="102">
+      <c r="B20" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="J20" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="132.6" customHeight="1">
+      <c r="B21" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="88"/>
-    </row>
-    <row r="3" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="I21" s="64"/>
+      <c r="J21" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="20.399999999999999" customHeight="1">
+      <c r="B22" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="111"/>
+    </row>
+    <row r="23" spans="1:11" ht="40.799999999999997">
+      <c r="B23" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="61">
-        <v>3</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="65" t="s">
+      <c r="C23" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="40.799999999999997">
+      <c r="B24" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="53" t="s">
+      <c r="C24" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="64"/>
+      <c r="J24" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="60.6" customHeight="1">
+      <c r="B25" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="71" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="61">
-        <v>5</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="79">
-        <v>6</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="73" t="s">
+      <c r="C25" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="88"/>
-    </row>
-    <row r="10" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="79">
-        <v>7</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="75" t="s">
+      <c r="E25" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="49"/>
+      <c r="J25" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="49" customFormat="1">
+      <c r="B26" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="1:11" s="49" customFormat="1" ht="105.6" customHeight="1">
+      <c r="B27" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="91.8">
+      <c r="A28" s="49"/>
+      <c r="B28" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="64"/>
+      <c r="J28" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="71.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A11" s="79">
-        <v>8</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="72"/>
-      <c r="J11" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79">
-        <v>9</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="72"/>
-      <c r="J12" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="79">
-        <v>10</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="89" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="79">
-        <v>11</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="79">
-        <v>12</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="79">
-        <v>13</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="79">
-        <v>14</v>
-      </c>
-      <c r="B17" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="88"/>
-    </row>
-    <row r="18" spans="1:11" ht="112.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="79">
-        <v>15</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="72"/>
-      <c r="J18" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="K18" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="91.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="79">
-        <v>16</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="102" x14ac:dyDescent="0.3">
-      <c r="B20" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="87"/>
-      <c r="J20" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="89" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="85" t="s">
+    </row>
+    <row r="29" spans="1:11" ht="78" customHeight="1">
+      <c r="A29" s="49"/>
+      <c r="B29" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="87"/>
-      <c r="J21" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" s="89" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B22" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="88"/>
-    </row>
-    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.3">
-      <c r="B23" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="75"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="88"/>
-    </row>
-    <row r="24" spans="1:11" ht="51" x14ac:dyDescent="0.3">
-      <c r="B24" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="88"/>
-    </row>
-    <row r="25" spans="1:11" ht="51" x14ac:dyDescent="0.3">
-      <c r="B25" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="88"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="49"/>
+      <c r="J29" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="65" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B26:K26"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2450,25 +3162,782 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0EFCB5-A91D-48A4-AE48-8F3900ABBFAC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0EFCB5-A91D-48A4-AE48-8F3900ABBFAC}">
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:K23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" style="74" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="74" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="74" customWidth="1"/>
+    <col min="5" max="6" width="23.21875" style="74" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="74" customWidth="1"/>
+    <col min="8" max="8" width="16" style="74" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="74"/>
+    <col min="10" max="10" width="21.21875" style="74" customWidth="1"/>
+    <col min="11" max="11" width="14" style="74" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="73"/>
+      <c r="J1" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" customHeight="1">
+      <c r="A2" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.399999999999999">
+      <c r="A3" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="75"/>
+      <c r="J3" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.399999999999999">
+      <c r="A4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="75"/>
+      <c r="J4" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20.399999999999999">
+      <c r="A5" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="75"/>
+      <c r="J5" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30.6">
+      <c r="A6" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="75"/>
+      <c r="J6" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.799999999999997">
+      <c r="A7" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="20.399999999999999">
+      <c r="A8" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="75"/>
+      <c r="J8" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="108"/>
+    </row>
+    <row r="10" spans="1:11" ht="61.8" customHeight="1">
+      <c r="A10" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="75"/>
+      <c r="J10" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="61.2" customHeight="1">
+      <c r="A11" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="75"/>
+      <c r="J11" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68.400000000000006" customHeight="1">
+      <c r="A12" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="75"/>
+      <c r="J12" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60.6" customHeight="1">
+      <c r="A13" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="75"/>
+      <c r="J13" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="64.8" customHeight="1">
+      <c r="A14" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="75"/>
+      <c r="J14" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
+    </row>
+    <row r="16" spans="1:11" ht="91.8">
+      <c r="A16" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="75"/>
+      <c r="J16" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="40.799999999999997">
+      <c r="A17" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="75"/>
+      <c r="J17" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="40.799999999999997">
+      <c r="A18" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="75"/>
+      <c r="J18" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="10.199999999999999" customHeight="1">
+      <c r="A19" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="108"/>
+    </row>
+    <row r="20" spans="1:11" ht="112.2">
+      <c r="A20" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" s="75"/>
+      <c r="J20" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="112.2">
+      <c r="A21" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="75"/>
+      <c r="J21" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="193.8">
+      <c r="A22" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="75"/>
+      <c r="J22" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="106" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="1:11" ht="112.2">
+      <c r="A24" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" s="75"/>
+      <c r="J24" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="142.80000000000001">
+      <c r="A25" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" s="75"/>
+      <c r="J25" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A23:K23"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K8 K10:K14 K16:K18 K20:K22 K24:K25" xr:uid="{499C1B14-B552-408B-B4E2-0FEE069C0BB6}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F8 F10:F14 F16:F18 F20:F22 F24:F25" xr:uid="{6EAA6B86-7AB7-42F6-8DD4-2819DD3B3F55}">
+      <formula1>"Valid,Invalid"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9571E6-C8F5-4A0E-83EB-DDCA61F86984}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>